--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-548136.8072735084</v>
+        <v>-553424.9227682801</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12313678.90129378</v>
+        <v>12311908.96312253</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>120.8975529654829</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.1786805578076</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>158.0608433132141</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -829,10 +829,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>88.42113273165056</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>217.454027322091</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>388.6240850249304</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -914,7 +914,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>45.30923748455535</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>92.85175465876388</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66.03149870010074</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914575</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>161.426567940158</v>
+        <v>207.0825439600114</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>234.5781109026893</v>
       </c>
       <c r="X10" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>9.000274384567263</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.479377239889</v>
@@ -1382,7 +1382,7 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>238.8369814386451</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.447489593873</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.91277062919555</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>12.16749065392382</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>251.8365920569924</v>
+        <v>171.1899637792186</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465751</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>35.97565497007443</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>205.8337116508004</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658119</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838884</v>
+        <v>24.1738259657501</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828896</v>
+        <v>52.06849973565022</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431729</v>
+        <v>70.57601873167854</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459969</v>
+        <v>55.72314698196095</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643942</v>
+        <v>41.29686219380068</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931853</v>
+        <v>41.22330424667979</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390858</v>
+        <v>42.97275566644706</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147793</v>
+        <v>53.79159358883919</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804998</v>
+        <v>41.14384575541123</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922191</v>
+        <v>18.98356133658316</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367783</v>
+        <v>9.882059701039083</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920514</v>
+        <v>88.0080032065664</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.28822402635</v>
+        <v>1393.881807272277</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.112722529281</v>
+        <v>1393.881807272277</v>
       </c>
       <c r="D2" t="n">
-        <v>995.6715937459487</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M2" t="n">
-        <v>1085.386573341137</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N2" t="n">
-        <v>1613.197856978599</v>
+        <v>1562.028895694246</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596799</v>
+        <v>1726.974845685404</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737747</v>
+        <v>1704.163302785214</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737747</v>
+        <v>1704.163302785214</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737747</v>
+        <v>1393.881807272277</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686801</v>
+        <v>1327.194567652346</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591876</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1874.261482913899</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1664.198339592541</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1441.658337963608</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1211.541092096895</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1022.234014446906</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>725.2921492877306</v>
+        <v>1606.3669088203</v>
       </c>
       <c r="C4" t="n">
-        <v>555.0870313537198</v>
+        <v>1606.3669088203</v>
       </c>
       <c r="D4" t="n">
-        <v>399.4539182562345</v>
+        <v>1450.733795722814</v>
       </c>
       <c r="E4" t="n">
-        <v>399.4539182562345</v>
+        <v>1450.733795722814</v>
       </c>
       <c r="F4" t="n">
-        <v>242.1279834692075</v>
+        <v>1293.407860935787</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865301</v>
+        <v>1293.407860935787</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>1204.093585449272</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>1204.093585449272</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385315</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259115</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597379</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628588</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670296</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446875</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1872.346253999475</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1872.346253999475</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>1872.346253999475</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>1606.3669088203</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>1606.3669088203</v>
       </c>
       <c r="X4" t="n">
-        <v>725.2921492877306</v>
+        <v>1606.3669088203</v>
       </c>
       <c r="Y4" t="n">
-        <v>725.2921492877306</v>
+        <v>1606.3669088203</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1173.291046173524</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.291046173524</v>
+        <v>1643.993922605378</v>
       </c>
       <c r="D5" t="n">
-        <v>1173.291046173524</v>
+        <v>1643.993922605378</v>
       </c>
       <c r="E5" t="n">
-        <v>1173.291046173524</v>
+        <v>1241.410397721923</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>824.5159592519007</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>411.3532037399038</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>87.27015330639443</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>895.7983071407457</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713897</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1900.245838152368</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1573.785791884921</v>
+        <v>2037.169424102448</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>810.2270749499698</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>659.5728445100621</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>529.4838771315424</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>393.0373862424301</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875478</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1985.128818155984</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1940.231660716795</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915703</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1553.184705594345</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1330.644703965412</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1330.644703965412</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1141.337626315424</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>962.0234093909312</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475495</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>43.49565939475495</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475495</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475495</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475495</v>
+        <v>108.2017302917938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1402.149495227435</v>
+        <v>651.050737184763</v>
       </c>
       <c r="C8" t="n">
-        <v>1008.973993730366</v>
+        <v>651.050737184763</v>
       </c>
       <c r="D8" t="n">
-        <v>623.5328649470334</v>
+        <v>265.6096084014307</v>
       </c>
       <c r="E8" t="n">
-        <v>623.5328649470334</v>
+        <v>265.6096084014307</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X8" t="n">
-        <v>2199.134950018231</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1802.644240938832</v>
+        <v>1051.54548289616</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>443.7671209181044</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>526.6043871814015</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>526.6043871814015</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>526.6043871814015</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>114.011453636999</v>
+        <v>711.8124058727028</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>711.8124058727028</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>711.8124058727028</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C11" t="n">
-        <v>813.636568773584</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>804.545382526547</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>473.7581327892852</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F11" t="n">
-        <v>128.6599694654569</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
         <v>128.6599694654569</v>
@@ -5075,16 +5075,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>803.0057595505241</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.783730761083</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>254.6298380530033</v>
+        <v>242.3394434530798</v>
       </c>
       <c r="C13" t="n">
-        <v>254.6298380530033</v>
+        <v>242.3394434530798</v>
       </c>
       <c r="D13" t="n">
-        <v>170.7930001017119</v>
+        <v>242.3394434530798</v>
       </c>
       <c r="E13" t="n">
-        <v>170.7930001017119</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F13" t="n">
-        <v>85.26334046087871</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5203,7 +5203,7 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118221</v>
@@ -5212,7 +5212,7 @@
         <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5230,7 +5230,7 @@
         <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>936.042825624544</v>
       </c>
       <c r="V13" t="n">
         <v>741.8597555915621</v>
@@ -5239,10 +5239,10 @@
         <v>530.3256286689336</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981107</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.0415815981107</v>
+        <v>355.7511869981872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1450.148693143103</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1128.769466792227</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D14" t="n">
-        <v>815.1246131550882</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550882</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312599</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T14" t="n">
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.19792756226</v>
+        <v>2686.615622666087</v>
       </c>
       <c r="X14" t="n">
-        <v>2103.541597641511</v>
+        <v>2686.615622666087</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.847163708306</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>318.9689542635005</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L15" t="n">
-        <v>802.5350401618138</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.8005932364098</v>
+        <v>389.2709335955763</v>
       </c>
       <c r="C16" t="n">
-        <v>376.3917504485928</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485928</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539892</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F16" t="n">
-        <v>207.099553813156</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.685342236449</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V16" t="n">
-        <v>1113.346296812132</v>
+        <v>872.8795642628199</v>
       </c>
       <c r="W16" t="n">
-        <v>901.8121698895031</v>
+        <v>664.9667242115066</v>
       </c>
       <c r="X16" t="n">
-        <v>739.5281228186801</v>
+        <v>502.6826771406836</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.2123367815173</v>
+        <v>502.6826771406836</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5552,10 +5552,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072211</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964837996</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924219</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5826,25 +5826,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
         <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129445</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
         <v>2132.883732040978</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205776</v>
@@ -6017,19 +6017,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,10 +6218,10 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3042.158533375468</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236563</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>393.1040050097767</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>985.0370485667553</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958355</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835538</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>323.8570290861559</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>763.136385708465</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1256.456677426994</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121372</v>
+        <v>1802.457577471574</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2330.268861109037</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.34435976561</v>
+        <v>2770.308462001365</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3118.495954132887</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3303.341514273836</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965124</v>
+        <v>365.6713676929736</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404878</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237456</v>
+        <v>267.6713584245275</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652549</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597528</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407234</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431908</v>
+        <v>86.73045008374231</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>261.0422972872697</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>536.8220577360521</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729548</v>
+        <v>834.7657566492987</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>1017.955390680508</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600013</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1376.56223950361</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387762</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451837</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250217</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273709</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400734</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045816</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027499</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7205,19 +7205,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222403</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184686</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567326</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879418</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.202162476281</v>
@@ -7831,25 +7831,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O2" t="n">
-        <v>530.1088400687426</v>
+        <v>316.1759081222361</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>579.6457977417041</v>
       </c>
       <c r="N3" t="n">
-        <v>498.7953683138381</v>
+        <v>604.1626973083982</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N5" t="n">
-        <v>644.833208078341</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>321.1820314128951</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>151.3369738679546</v>
+        <v>611.1777065035434</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083982</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413557</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,7 +8535,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>490.5190850554644</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>613.9497439416879</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>407.1386544003163</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>234.783646787533</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,7 +9021,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,13 +9489,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>405.2562148204912</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>690.2992872583812</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>301.5081307161998</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>57.3737508480184</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58043033762145</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338904</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>137.6351375228674</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>44.37414022967107</v>
+        <v>125.0207685074448</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>156.2655843625777</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.585074002601702</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1078535.737636253</v>
+        <v>1077633.416215613</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1078535.737636253</v>
+        <v>1077633.416215613</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>962995.214837993</v>
+        <v>962995.2148379934</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="C2" t="n">
         <v>216398.6137120281</v>
       </c>
       <c r="D2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="E2" t="n">
         <v>191230.8281092805</v>
       </c>
       <c r="F2" t="n">
-        <v>191230.8281092806</v>
+        <v>191230.8281092805</v>
       </c>
       <c r="G2" t="n">
         <v>216398.6137120281</v>
@@ -26335,19 +26335,19 @@
         <v>216398.6137120281</v>
       </c>
       <c r="J2" t="n">
+        <v>216398.6137120282</v>
+      </c>
+      <c r="K2" t="n">
         <v>216398.6137120281</v>
       </c>
-      <c r="K2" t="n">
-        <v>216398.613712028</v>
-      </c>
       <c r="L2" t="n">
-        <v>216398.6137120279</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="M2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="N2" t="n">
-        <v>216398.613712028</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="O2" t="n">
         <v>216398.6137120282</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401319</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728564</v>
+        <v>62456.24177539654</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277108</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26427,7 +26427,7 @@
         <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-232305.8436389362</v>
+        <v>-228255.171631522</v>
       </c>
       <c r="C6" t="n">
-        <v>-50100.89534708054</v>
+        <v>-54396.51459746646</v>
       </c>
       <c r="D6" t="n">
-        <v>-56692.95668680294</v>
+        <v>-64429.24591019406</v>
       </c>
       <c r="E6" t="n">
-        <v>-86875.12756481233</v>
+        <v>-87084.85911150192</v>
       </c>
       <c r="F6" t="n">
-        <v>25247.43390923225</v>
+        <v>25037.70236254248</v>
       </c>
       <c r="G6" t="n">
-        <v>-49752.77213196357</v>
+        <v>-49752.77213196346</v>
       </c>
       <c r="H6" t="n">
-        <v>-2327.446595281581</v>
+        <v>-2327.446595281559</v>
       </c>
       <c r="I6" t="n">
-        <v>-2327.446595281523</v>
+        <v>-2327.446595281537</v>
       </c>
       <c r="J6" t="n">
-        <v>-215369.3641925669</v>
+        <v>-208853.0790379939</v>
       </c>
       <c r="K6" t="n">
-        <v>-8567.214998064541</v>
+        <v>-8567.214998064512</v>
       </c>
       <c r="L6" t="n">
-        <v>-63749.80393268591</v>
+        <v>-67798.6411431576</v>
       </c>
       <c r="M6" t="n">
-        <v>-44528.27605490456</v>
+        <v>-45579.97106609272</v>
       </c>
       <c r="N6" t="n">
-        <v>-2327.446595281683</v>
+        <v>-2327.446595281595</v>
       </c>
       <c r="O6" t="n">
-        <v>-30095.14063805249</v>
+        <v>-30095.14063805261</v>
       </c>
       <c r="P6" t="n">
-        <v>-2327.446595281355</v>
+        <v>-2327.446595281494</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293146</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660705</v>
+        <v>78.07030221924568</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155134</v>
+        <v>17.58004954287469</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346384</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042784</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>277.660136669138</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>85.3471214307973</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>19.46023144203369</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>65.50263279647039</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>14.28549167275568</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.10140906039163</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>91.64450825390446</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>30.33573339693564</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>102.4715680545699</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>251.298926145164</v>
+        <v>205.6429501253106</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,16 +28017,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28065,16 +28065,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.91898714544482</v>
       </c>
       <c r="X10" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28983,16 +28983,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
-        <v>5.636002634528126</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733238</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>130.3599693155844</v>
@@ -29217,22 +29217,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35.71049010668708</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599436</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901209</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>86.65052755599527</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.10808140893664</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833086</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253966</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>76.79385455031829</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.636002634528552</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.63600263452814</v>
+        <v>5.636002634528452</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30639,20 +30639,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>35.71049010668867</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,43 +30852,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>35.71049010668918</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.636002634529262</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O2" t="n">
-        <v>380.5450026446462</v>
+        <v>166.6120706981398</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>487.2586756923922</v>
       </c>
       <c r="N3" t="n">
-        <v>413.4232554596715</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N5" t="n">
-        <v>495.714716740557</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>176.683332994503</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>58.94985181864269</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246681</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>400.4587381985462</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.2621850527989</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>145.1867114541996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,7 +35741,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094867</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,13 +36209,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>318.1728500011766</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094869</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>200.0587396437659</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009055</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9121652090694</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907917</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>258.8908014987987</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407163</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341172</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537644</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.4415774595197</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947297</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653316</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>197.8808906882765</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133811</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>223.8838015594806</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287092</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094881</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
